--- a/data_100_runs.xlsx
+++ b/data_100_runs.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08381750653259069</v>
+        <v>0.0869136440516495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151822165247239</v>
+        <v>0.004928954598794375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7643603282201704</v>
+        <v>0.9081574013495562</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2082898776981312</v>
+        <v>0.2373374365802628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3460109130145631</v>
+        <v>0.1186938646744018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4456992092873058</v>
+        <v>0.6439686987453355</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1507240000854073</v>
+        <v>0.1897327700163195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3279090607207886</v>
+        <v>0.03613682517919353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5213669391938041</v>
+        <v>0.7741304048044868</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07865596740998609</v>
+        <v>0.08242909021723284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2394453849136681</v>
+        <v>0.1560731313932184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6818986476763458</v>
+        <v>0.7614977783895488</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1940679583731451</v>
+        <v>0.2180464546342966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3964474108130775</v>
+        <v>0.2632600246927205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4094846308137775</v>
+        <v>0.518693520672983</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1501816188972414</v>
+        <v>0.158337673535164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3490308216444599</v>
+        <v>0.2347435024876414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5007875594582987</v>
+        <v>0.6069188239771947</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07538108026612521</v>
+        <v>0.08111571510522812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3330091836601908</v>
+        <v>0.196857978192605</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5916097360736841</v>
+        <v>0.7220263067021668</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1943338307081175</v>
+        <v>0.2151086402249628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3984978333165458</v>
+        <v>0.295779239716532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4071683359753367</v>
+        <v>0.4891121200585052</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1441430084568653</v>
+        <v>0.1643324921236784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.391017166825935</v>
+        <v>0.254690813462867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4648398247171997</v>
+        <v>0.5809766944134546</v>
       </c>
     </row>
   </sheetData>
